--- a/data/trans_dic/DCD-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Estudios-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.2135746201634523</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.4323155983567055</v>
+        <v>0.4323155983567056</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1921197882989258</v>
@@ -664,7 +664,7 @@
         <v>0.1746783273563489</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3560546132927493</v>
+        <v>0.3560546132927492</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1025876776530412</v>
+        <v>0.1022984870534618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1015429816669138</v>
+        <v>0.1032849928589715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2159908157183908</v>
+        <v>0.2136164444463109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2195706604518657</v>
+        <v>0.2191994553876538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1840147703010222</v>
+        <v>0.1852452395130446</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4057307498235303</v>
+        <v>0.401789023576711</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1763103351592254</v>
+        <v>0.1772112426551789</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1567880083205906</v>
+        <v>0.1553914959539608</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.334923699808486</v>
+        <v>0.3335183223019643</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1446929259390591</v>
+        <v>0.1437790337826571</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1483284822968677</v>
+        <v>0.147458544099061</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2793608050848994</v>
+        <v>0.281357026161484</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2658673629043988</v>
+        <v>0.2675752407904042</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2432173041493167</v>
+        <v>0.2432374145953131</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4576414397931804</v>
+        <v>0.4589148618713552</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2086011152377215</v>
+        <v>0.2097363073377108</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1934389874145533</v>
+        <v>0.1937797777991011</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3785548406692225</v>
+        <v>0.3780077363046916</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03885236450694227</v>
+        <v>0.039864263781217</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04336313966010573</v>
+        <v>0.043108809096043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1022318651007959</v>
+        <v>0.1015408410893351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1059170668281527</v>
+        <v>0.1037037944784297</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09157948304119416</v>
+        <v>0.09038091511656304</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2125473904052509</v>
+        <v>0.2100189212971036</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07393397527379755</v>
+        <v>0.07398516578954842</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07025893818403776</v>
+        <v>0.07027240675345924</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1583521494300384</v>
+        <v>0.1579712146526902</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06077029603021031</v>
+        <v>0.05931157834172856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06444398792558755</v>
+        <v>0.06381781912597011</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1295762321617319</v>
+        <v>0.127863715292001</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1369220964764183</v>
+        <v>0.1366951227976152</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1209448887353102</v>
+        <v>0.1200225006798</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2455266120880089</v>
+        <v>0.2446096740962705</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09274714748518342</v>
+        <v>0.09351601692536098</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08762897524681329</v>
+        <v>0.08714909283484909</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1802207134565881</v>
+        <v>0.1801891930052817</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01200944777915594</v>
+        <v>0.0107155670969131</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02985217772856227</v>
+        <v>0.02999098222723316</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06065452716314187</v>
+        <v>0.06128514506632016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07167128903692828</v>
+        <v>0.06955703554378825</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05060723585565836</v>
+        <v>0.05167873571602755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1769624368121421</v>
+        <v>0.1755916251766935</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0432367196421788</v>
+        <v>0.04468881192390643</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0460248440970666</v>
+        <v>0.04580155874605765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1246278549520442</v>
+        <v>0.125378349766727</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04111818959618702</v>
+        <v>0.04223685390370559</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06856304259663686</v>
+        <v>0.06922005613429126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1024504516376761</v>
+        <v>0.1040675799309548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1327488236127235</v>
+        <v>0.1299587510550296</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0980898899051199</v>
+        <v>0.09731459669772169</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.231118965882886</v>
+        <v>0.2275072290291633</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07699226248891405</v>
+        <v>0.07959555853239296</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07454390229718498</v>
+        <v>0.07553344557634276</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1588582474452372</v>
+        <v>0.159045000549819</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05811122522740534</v>
+        <v>0.05776000527849151</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0592134737556146</v>
+        <v>0.059270655512354</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1180523890702987</v>
+        <v>0.1184605765728294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1508480110516622</v>
+        <v>0.1493614781030236</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.118857801468723</v>
+        <v>0.1192805044900602</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2545571960112541</v>
+        <v>0.254003075379078</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1081463057072211</v>
+        <v>0.1079453169345562</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09239786493808524</v>
+        <v>0.09231075614770048</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1923250357195304</v>
+        <v>0.1924943979168735</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07564052288606096</v>
+        <v>0.0754615195966493</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07747093668980061</v>
+        <v>0.07697895332033239</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1407386459114835</v>
+        <v>0.1412230868103143</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1756421759379737</v>
+        <v>0.176136546226324</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1421076796633413</v>
+        <v>0.1436214446620316</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2813396936613836</v>
+        <v>0.279605144415026</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1238691097344872</v>
+        <v>0.123818356126073</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1069435515834269</v>
+        <v>0.1070421141981495</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2099414859978357</v>
+        <v>0.2096471237467922</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>99986</v>
+        <v>99705</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>76599</v>
+        <v>77913</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>124957</v>
+        <v>123583</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>293741</v>
+        <v>293244</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>183032</v>
+        <v>184256</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>333526</v>
+        <v>330286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>407707</v>
+        <v>409790</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>274223</v>
+        <v>271781</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>469083</v>
+        <v>467115</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>141024</v>
+        <v>140133</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>111891</v>
+        <v>111235</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>161618</v>
+        <v>162773</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>355677</v>
+        <v>357961</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>241919</v>
+        <v>241939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>376199</v>
+        <v>377245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>482378</v>
+        <v>485003</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>338326</v>
+        <v>338922</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>530191</v>
+        <v>529425</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>76304</v>
+        <v>78292</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>90039</v>
+        <v>89510</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>228035</v>
+        <v>226494</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>186181</v>
+        <v>182291</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>182087</v>
+        <v>179704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>461524</v>
+        <v>456033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>275165</v>
+        <v>275355</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>285580</v>
+        <v>285635</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>697060</v>
+        <v>695383</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>119350</v>
+        <v>116485</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>133811</v>
+        <v>132510</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>289028</v>
+        <v>285208</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>240682</v>
+        <v>240283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>240475</v>
+        <v>238641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>533135</v>
+        <v>531143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>345183</v>
+        <v>348044</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>356184</v>
+        <v>354234</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>793324</v>
+        <v>793185</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5779</v>
+        <v>5156</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16326</v>
+        <v>16402</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43161</v>
+        <v>43610</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32871</v>
+        <v>31901</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27790</v>
+        <v>28379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>130046</v>
+        <v>129038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40634</v>
+        <v>41999</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>50444</v>
+        <v>50200</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>180270</v>
+        <v>181355</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19785</v>
+        <v>20324</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37496</v>
+        <v>37855</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>72902</v>
+        <v>74053</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60883</v>
+        <v>59603</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53865</v>
+        <v>53439</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>169844</v>
+        <v>167190</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72358</v>
+        <v>74805</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81702</v>
+        <v>82787</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>229783</v>
+        <v>230053</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>198728</v>
+        <v>197527</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>200000</v>
+        <v>200194</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>415625</v>
+        <v>417062</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>536149</v>
+        <v>530865</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>419818</v>
+        <v>421311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>949067</v>
+        <v>947001</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>754214</v>
+        <v>752812</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>638443</v>
+        <v>637841</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1394162</v>
+        <v>1395390</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>258674</v>
+        <v>258062</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>261667</v>
+        <v>260005</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>495496</v>
+        <v>497202</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>624273</v>
+        <v>626030</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>501939</v>
+        <v>507285</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1048921</v>
+        <v>1042454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>863865</v>
+        <v>863511</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>738950</v>
+        <v>739631</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1521864</v>
+        <v>1519730</v>
       </c>
     </row>
     <row r="20">
